--- a/Today-CV/코로나 현황.xlsx
+++ b/Today-CV/코로나 현황.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\COVID_info\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Today-CV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D0CBD35-59BD-472A-8259-9E5B76B9CDA7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0169E4E0-5E8E-489A-8247-B9B36DFD8208}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>날짜</t>
   </si>
@@ -53,6 +53,15 @@
   </si>
   <si>
     <t>의심 증상 없음</t>
+  </si>
+  <si>
+    <t>2021-03-21</t>
+  </si>
+  <si>
+    <t>01:27</t>
+  </si>
+  <si>
+    <t>강소리</t>
   </si>
 </sst>
 </file>
@@ -95,10 +104,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -402,18 +414,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="8.796875" style="1"/>
+    <col min="2" max="3" width="8.796875" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.796875" style="1"/>
+    <col min="5" max="5" width="8.796875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
@@ -455,6 +468,20 @@
         <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>10</v>
       </c>
     </row>

--- a/Today-CV/코로나 현황.xlsx
+++ b/Today-CV/코로나 현황.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Today-CV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0169E4E0-5E8E-489A-8247-B9B36DFD8208}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8753AB98-EA96-4353-A9A7-CF5252FD0919}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>날짜</t>
   </si>
@@ -32,36 +32,6 @@
   </si>
   <si>
     <t>자가진단 결과</t>
-  </si>
-  <si>
-    <t>2021-03-20</t>
-  </si>
-  <si>
-    <t>21:59</t>
-  </si>
-  <si>
-    <t>빈센조</t>
-  </si>
-  <si>
-    <t>자가격리 필요</t>
-  </si>
-  <si>
-    <t>22:04</t>
-  </si>
-  <si>
-    <t>이히히</t>
-  </si>
-  <si>
-    <t>의심 증상 없음</t>
-  </si>
-  <si>
-    <t>2021-03-21</t>
-  </si>
-  <si>
-    <t>01:27</t>
-  </si>
-  <si>
-    <t>강소리</t>
   </si>
 </sst>
 </file>
@@ -104,13 +74,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -414,10 +381,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -425,8 +392,8 @@
     <col min="1" max="1" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="8.796875" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.796875" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.796875" style="1"/>
+    <col min="5" max="6" width="8.796875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
@@ -443,48 +410,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
